--- a/Data/All_Population.xlsx
+++ b/Data/All_Population.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/breaker/Desktop/BreakeR/DEV/SMU/ML-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A0536-4FBA-B340-ABEE-B49E3AB42EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43144DE-653C-6243-B885-0544CDD991F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19780" xr2:uid="{76CC24D6-F487-5147-9492-003CD1B021CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve"> 100+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>2010S</t>
   </si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,97 +496,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE81038E-6043-094B-837A-499633D7E057}">
-  <dimension ref="A1:AA103"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>10312545</v>
@@ -8968,8 +8968,8 @@
       </c>
     </row>
     <row r="103" spans="1:27">
-      <c r="A103" t="s">
-        <v>0</v>
+      <c r="A103">
+        <v>100</v>
       </c>
       <c r="B103">
         <v>3523</v>
@@ -9048,6 +9048,332 @@
       </c>
       <c r="AA103">
         <v>1725</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105">
+        <f>SUM(B3:B67)</f>
+        <v>9309775</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ref="C105:AA105" si="0">SUM(C3:C67)</f>
+        <v>10764166</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="0"/>
+        <v>9204929</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="0"/>
+        <v>10864953</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="0"/>
+        <v>9089735</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="0"/>
+        <v>10958057</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="0"/>
+        <v>8981937</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="0"/>
+        <v>11039107</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="0"/>
+        <v>8886704</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="0"/>
+        <v>11103385</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="0"/>
+        <v>8759745</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="0"/>
+        <v>11203724</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="0"/>
+        <v>8634717</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="0"/>
+        <v>11342305</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="0"/>
+        <v>8497525</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="0"/>
+        <v>11406060</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="0"/>
+        <v>8355326</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="0"/>
+        <v>11525352</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="0"/>
+        <v>8250443</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="0"/>
+        <v>11588325</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="0"/>
+        <v>8107326</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="0"/>
+        <v>11651699</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="0"/>
+        <v>7912011</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="0"/>
+        <v>11683986</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="0"/>
+        <v>7770165</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="0"/>
+        <v>11596625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="B106">
+        <f>SUM(B68:B103)</f>
+        <v>1002770</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:AA106" si="1">SUM(C68:C103)</f>
+        <v>1022456</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>1044750</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>1072462</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>1105583</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>1135242</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>1161708</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>1195523</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>1216529</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="1"/>
+        <v>1254445</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>1262436</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>1318882</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="1"/>
+        <v>1295899</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="1"/>
+        <v>1374475</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="1"/>
+        <v>1359901</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="1"/>
+        <v>1467835</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="1"/>
+        <v>1410297</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="1"/>
+        <v>1551801</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="1"/>
+        <v>1478664</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="1"/>
+        <v>1651341</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="1"/>
+        <v>1561139</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="1"/>
+        <v>1775315</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="1"/>
+        <v>1597447</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="1"/>
+        <v>1881464</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="1"/>
+        <v>1658207</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="1"/>
+        <v>1992807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108">
+        <f>SUM(B105:C105)</f>
+        <v>20073941</v>
+      </c>
+      <c r="D108">
+        <f>SUM(D105:E105)</f>
+        <v>20069882</v>
+      </c>
+      <c r="F108">
+        <f>SUM(F105:G105)</f>
+        <v>20047792</v>
+      </c>
+      <c r="H108">
+        <f>SUM(H105:I105)</f>
+        <v>20021044</v>
+      </c>
+      <c r="J108">
+        <f>SUM(J105:K105)</f>
+        <v>19990089</v>
+      </c>
+      <c r="L108">
+        <f>SUM(L105:M105)</f>
+        <v>19963469</v>
+      </c>
+      <c r="N108">
+        <f>SUM(N105:O105)</f>
+        <v>19977022</v>
+      </c>
+      <c r="P108">
+        <f>SUM(P105:Q105)</f>
+        <v>19903585</v>
+      </c>
+      <c r="R108">
+        <f>SUM(R105:S105)</f>
+        <v>19880678</v>
+      </c>
+      <c r="T108">
+        <f>SUM(T105:U105)</f>
+        <v>19838768</v>
+      </c>
+      <c r="V108">
+        <f>SUM(V105:W105)</f>
+        <v>19759025</v>
+      </c>
+      <c r="X108">
+        <f>SUM(X105:Y105)</f>
+        <v>19595997</v>
+      </c>
+      <c r="Z108">
+        <f>SUM(Z105:AA105)</f>
+        <v>19366790</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="B109">
+        <f>SUM(B106:C106)</f>
+        <v>2025226</v>
+      </c>
+      <c r="D109">
+        <f>SUM(D106:E106)</f>
+        <v>2117212</v>
+      </c>
+      <c r="F109">
+        <f>SUM(F106:G106)</f>
+        <v>2240825</v>
+      </c>
+      <c r="H109">
+        <f>SUM(H106:I106)</f>
+        <v>2357231</v>
+      </c>
+      <c r="J109">
+        <f>SUM(J106:K106)</f>
+        <v>2470974</v>
+      </c>
+      <c r="L109">
+        <f>SUM(L106:M106)</f>
+        <v>2581318</v>
+      </c>
+      <c r="N109">
+        <f>SUM(N106:O106)</f>
+        <v>2670374</v>
+      </c>
+      <c r="P109">
+        <f>SUM(P106:Q106)</f>
+        <v>2827736</v>
+      </c>
+      <c r="R109">
+        <f>SUM(R106:S106)</f>
+        <v>2962098</v>
+      </c>
+      <c r="T109">
+        <f>SUM(T106:U106)</f>
+        <v>3130005</v>
+      </c>
+      <c r="V109">
+        <f>SUM(V106:W106)</f>
+        <v>3336454</v>
+      </c>
+      <c r="X109">
+        <f>SUM(X106:Y106)</f>
+        <v>3478911</v>
+      </c>
+      <c r="Z109">
+        <f>SUM(Z106:AA106)</f>
+        <v>3651014</v>
       </c>
     </row>
   </sheetData>

--- a/Data/All_Population.xlsx
+++ b/Data/All_Population.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/breaker/Desktop/BreakeR/DEV/SMU/ML-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43144DE-653C-6243-B885-0544CDD991F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE444B9E-A04E-6A42-82D8-A018E63B00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19780" xr2:uid="{76CC24D6-F487-5147-9492-003CD1B021CF}"/>
+    <workbookView xWindow="3040" yWindow="2000" windowWidth="27900" windowHeight="16940" xr2:uid="{8A2093EC-7F52-D14E-A4A0-413E7944B841}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,91 +34,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>2010S</t>
+  </si>
+  <si>
+    <t>2010K</t>
   </si>
   <si>
     <t>2011S</t>
   </si>
   <si>
+    <t>2011K</t>
+  </si>
+  <si>
     <t>2012S</t>
+  </si>
+  <si>
+    <t>2012K</t>
   </si>
   <si>
     <t>2013S</t>
   </si>
   <si>
+    <t>2013K</t>
+  </si>
+  <si>
     <t>2014S</t>
+  </si>
+  <si>
+    <t>2014K</t>
   </si>
   <si>
     <t>2015S</t>
   </si>
   <si>
+    <t>2015K</t>
+  </si>
+  <si>
     <t>2016S</t>
+  </si>
+  <si>
+    <t>2016K</t>
   </si>
   <si>
     <t>2017S</t>
   </si>
   <si>
+    <t>2017K</t>
+  </si>
+  <si>
     <t>2018S</t>
+  </si>
+  <si>
+    <t>2018K</t>
   </si>
   <si>
     <t>2019S</t>
   </si>
   <si>
+    <t>2019K</t>
+  </si>
+  <si>
     <t>2020S</t>
+  </si>
+  <si>
+    <t>2020K</t>
   </si>
   <si>
     <t>2021S</t>
   </si>
   <si>
-    <t>2022S</t>
+    <t>2021K</t>
   </si>
   <si>
-    <t>2010K</t>
-  </si>
-  <si>
-    <t>2011K</t>
-  </si>
-  <si>
-    <t>2012K</t>
-  </si>
-  <si>
-    <t>2013K</t>
-  </si>
-  <si>
-    <t>2014K</t>
-  </si>
-  <si>
-    <t>2015K</t>
-  </si>
-  <si>
-    <t>2016K</t>
-  </si>
-  <si>
-    <t>2017K</t>
-  </si>
-  <si>
-    <t>2018K</t>
-  </si>
-  <si>
-    <t>2019K</t>
-  </si>
-  <si>
-    <t>2020K</t>
-  </si>
-  <si>
-    <t>2021K</t>
+    <t>2022S</t>
   </si>
   <si>
     <t>2022K</t>
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>SUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE81038E-6043-094B-837A-499633D7E057}">
-  <dimension ref="A1:AA109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79383976-0499-2A48-9824-082C9193C9FE}">
+  <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -509,76 +505,76 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -9048,332 +9044,6 @@
       </c>
       <c r="AA103">
         <v>1725</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27">
-      <c r="A105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B105">
-        <f>SUM(B3:B67)</f>
-        <v>9309775</v>
-      </c>
-      <c r="C105">
-        <f t="shared" ref="C105:AA105" si="0">SUM(C3:C67)</f>
-        <v>10764166</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="0"/>
-        <v>9204929</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="0"/>
-        <v>10864953</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="0"/>
-        <v>9089735</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="0"/>
-        <v>10958057</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="0"/>
-        <v>8981937</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="0"/>
-        <v>11039107</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="0"/>
-        <v>8886704</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="0"/>
-        <v>11103385</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="0"/>
-        <v>8759745</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="0"/>
-        <v>11203724</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="0"/>
-        <v>8634717</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="0"/>
-        <v>11342305</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="0"/>
-        <v>8497525</v>
-      </c>
-      <c r="Q105">
-        <f t="shared" si="0"/>
-        <v>11406060</v>
-      </c>
-      <c r="R105">
-        <f t="shared" si="0"/>
-        <v>8355326</v>
-      </c>
-      <c r="S105">
-        <f t="shared" si="0"/>
-        <v>11525352</v>
-      </c>
-      <c r="T105">
-        <f t="shared" si="0"/>
-        <v>8250443</v>
-      </c>
-      <c r="U105">
-        <f t="shared" si="0"/>
-        <v>11588325</v>
-      </c>
-      <c r="V105">
-        <f t="shared" si="0"/>
-        <v>8107326</v>
-      </c>
-      <c r="W105">
-        <f t="shared" si="0"/>
-        <v>11651699</v>
-      </c>
-      <c r="X105">
-        <f t="shared" si="0"/>
-        <v>7912011</v>
-      </c>
-      <c r="Y105">
-        <f t="shared" si="0"/>
-        <v>11683986</v>
-      </c>
-      <c r="Z105">
-        <f t="shared" si="0"/>
-        <v>7770165</v>
-      </c>
-      <c r="AA105">
-        <f t="shared" si="0"/>
-        <v>11596625</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27">
-      <c r="B106">
-        <f>SUM(B68:B103)</f>
-        <v>1002770</v>
-      </c>
-      <c r="C106">
-        <f t="shared" ref="C106:AA106" si="1">SUM(C68:C103)</f>
-        <v>1022456</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="1"/>
-        <v>1044750</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>1072462</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>1105583</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="1"/>
-        <v>1135242</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="1"/>
-        <v>1161708</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="1"/>
-        <v>1195523</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="1"/>
-        <v>1216529</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="1"/>
-        <v>1254445</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="1"/>
-        <v>1262436</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="1"/>
-        <v>1318882</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="1"/>
-        <v>1295899</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="1"/>
-        <v>1374475</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="1"/>
-        <v>1359901</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="1"/>
-        <v>1467835</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="1"/>
-        <v>1410297</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="1"/>
-        <v>1551801</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="1"/>
-        <v>1478664</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="1"/>
-        <v>1651341</v>
-      </c>
-      <c r="V106">
-        <f t="shared" si="1"/>
-        <v>1561139</v>
-      </c>
-      <c r="W106">
-        <f t="shared" si="1"/>
-        <v>1775315</v>
-      </c>
-      <c r="X106">
-        <f t="shared" si="1"/>
-        <v>1597447</v>
-      </c>
-      <c r="Y106">
-        <f t="shared" si="1"/>
-        <v>1881464</v>
-      </c>
-      <c r="Z106">
-        <f t="shared" si="1"/>
-        <v>1658207</v>
-      </c>
-      <c r="AA106">
-        <f t="shared" si="1"/>
-        <v>1992807</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27">
-      <c r="A108" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108">
-        <f>SUM(B105:C105)</f>
-        <v>20073941</v>
-      </c>
-      <c r="D108">
-        <f>SUM(D105:E105)</f>
-        <v>20069882</v>
-      </c>
-      <c r="F108">
-        <f>SUM(F105:G105)</f>
-        <v>20047792</v>
-      </c>
-      <c r="H108">
-        <f>SUM(H105:I105)</f>
-        <v>20021044</v>
-      </c>
-      <c r="J108">
-        <f>SUM(J105:K105)</f>
-        <v>19990089</v>
-      </c>
-      <c r="L108">
-        <f>SUM(L105:M105)</f>
-        <v>19963469</v>
-      </c>
-      <c r="N108">
-        <f>SUM(N105:O105)</f>
-        <v>19977022</v>
-      </c>
-      <c r="P108">
-        <f>SUM(P105:Q105)</f>
-        <v>19903585</v>
-      </c>
-      <c r="R108">
-        <f>SUM(R105:S105)</f>
-        <v>19880678</v>
-      </c>
-      <c r="T108">
-        <f>SUM(T105:U105)</f>
-        <v>19838768</v>
-      </c>
-      <c r="V108">
-        <f>SUM(V105:W105)</f>
-        <v>19759025</v>
-      </c>
-      <c r="X108">
-        <f>SUM(X105:Y105)</f>
-        <v>19595997</v>
-      </c>
-      <c r="Z108">
-        <f>SUM(Z105:AA105)</f>
-        <v>19366790</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27">
-      <c r="B109">
-        <f>SUM(B106:C106)</f>
-        <v>2025226</v>
-      </c>
-      <c r="D109">
-        <f>SUM(D106:E106)</f>
-        <v>2117212</v>
-      </c>
-      <c r="F109">
-        <f>SUM(F106:G106)</f>
-        <v>2240825</v>
-      </c>
-      <c r="H109">
-        <f>SUM(H106:I106)</f>
-        <v>2357231</v>
-      </c>
-      <c r="J109">
-        <f>SUM(J106:K106)</f>
-        <v>2470974</v>
-      </c>
-      <c r="L109">
-        <f>SUM(L106:M106)</f>
-        <v>2581318</v>
-      </c>
-      <c r="N109">
-        <f>SUM(N106:O106)</f>
-        <v>2670374</v>
-      </c>
-      <c r="P109">
-        <f>SUM(P106:Q106)</f>
-        <v>2827736</v>
-      </c>
-      <c r="R109">
-        <f>SUM(R106:S106)</f>
-        <v>2962098</v>
-      </c>
-      <c r="T109">
-        <f>SUM(T106:U106)</f>
-        <v>3130005</v>
-      </c>
-      <c r="V109">
-        <f>SUM(V106:W106)</f>
-        <v>3336454</v>
-      </c>
-      <c r="X109">
-        <f>SUM(X106:Y106)</f>
-        <v>3478911</v>
-      </c>
-      <c r="Z109">
-        <f>SUM(Z106:AA106)</f>
-        <v>3651014</v>
       </c>
     </row>
   </sheetData>
